--- a/data/trans_camb/P16A07-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A07-Habitat-trans_camb.xlsx
@@ -540,7 +540,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido antidepresivos en las dos últimas semanas</t>
+          <t>Población que ha consumido medicamentos antidepresivos en las dos últimas semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_camb/P16A07-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A07-Habitat-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.37857898858826</v>
+        <v>-2.354025497118169</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.984632516163282</v>
+        <v>-2.807415821481189</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.3352229880405379</v>
+        <v>-0.2081001219535896</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.7546072002611638</v>
+        <v>0.7925703743600132</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.6766890733854964</v>
+        <v>-0.2432291723013471</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-1.677554529006317</v>
+        <v>-1.775774184387705</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.08681555108891642</v>
+        <v>-0.05278531659152393</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.127775179959725</v>
+        <v>-1.026816601969424</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.3248162224407374</v>
+        <v>-0.3195513311723115</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.126222555703786</v>
+        <v>1.223873685385873</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4635829717031445</v>
+        <v>0.3725404108703529</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.906235915919272</v>
+        <v>4.143465461660326</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.548833177866889</v>
+        <v>6.423762443602577</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>5.099556544568674</v>
+        <v>5.553520715103934</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.724067295231108</v>
+        <v>2.785327285753123</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.245379580881647</v>
+        <v>3.380440343404091</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.227676806973637</v>
+        <v>2.177789933976062</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.710446764999559</v>
+        <v>2.952933683779005</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.5923613496818969</v>
+        <v>-0.5622740111967286</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.728448998544279</v>
+        <v>-0.7340049304884277</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1105903232136393</v>
+        <v>-0.06812022905117748</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.09472738804938888</v>
+        <v>0.1048522277257156</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.09461849200929257</v>
+        <v>-0.04972106397141833</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2136594198466087</v>
+        <v>-0.2404335773846228</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.03912064636040544</v>
+        <v>-0.01579931430298478</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2237181663383059</v>
+        <v>-0.1973442242282675</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.07977691906958266</v>
+        <v>-0.06756576214311526</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.5674108584381233</v>
+        <v>0.6001041046857262</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.2698481624713886</v>
+        <v>0.1871959727154776</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.698744177499673</v>
+        <v>1.809148719604536</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.295477797462056</v>
+        <v>1.33303027513747</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.070020254741569</v>
+        <v>1.130895546421524</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5918412595492595</v>
+        <v>0.5992947205232213</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8145922583228822</v>
+        <v>0.89579400698883</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.5589551532395083</v>
+        <v>0.58203201309751</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.6937645234994291</v>
+        <v>0.7928322924231213</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-0.6014246729109166</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.2287291872863684</v>
+        <v>0.2287291872863681</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>1.617297113336345</v>
@@ -878,7 +878,7 @@
         <v>0.1114648145261701</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.1002699699650056</v>
+        <v>0.1002699699650063</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.3540101119655746</v>
+        <v>-0.353920055343337</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.905925699319978</v>
+        <v>-1.925244868941888</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.152653093779494</v>
+        <v>-1.202271656775068</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.7282737086863718</v>
+        <v>-0.7815694655296942</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.532701690580684</v>
+        <v>-1.585923722982435</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-2.214733073625499</v>
+        <v>-2.037137007275418</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.06990738851412119</v>
+        <v>-0.02310129164499097</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.268171851024037</v>
+        <v>-1.266277670387208</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.243281317267637</v>
+        <v>-1.104539929512501</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.715168342716649</v>
+        <v>2.840368985008683</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5823871900141895</v>
+        <v>0.6523230912505116</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.647992056794763</v>
+        <v>1.615762367109001</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.233921748908345</v>
+        <v>3.779783093064436</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.416328761288943</v>
+        <v>3.107578770026365</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.840053361707293</v>
+        <v>2.078359970886272</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.83623761199352</v>
+        <v>2.821662944565992</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.399851979067317</v>
+        <v>1.496404262185157</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.254921330000005</v>
+        <v>1.265998582615398</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.2590018194719345</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.09850157192051406</v>
+        <v>0.09850157192051391</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.2488291175483818</v>
@@ -983,7 +983,7 @@
         <v>0.0252297406209325</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.02269581970812709</v>
+        <v>0.02269581970812725</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1529498801732377</v>
+        <v>-0.1439070867367732</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.619350374264422</v>
+        <v>-0.6076933140407544</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3831384688020426</v>
+        <v>-0.4081829488657458</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1032200373225322</v>
+        <v>-0.1100868173616411</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1958394796725124</v>
+        <v>-0.2131534217595257</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2886959298585474</v>
+        <v>-0.2672467925440714</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.02897368359169845</v>
+        <v>-0.01198343702078208</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2540248841413831</v>
+        <v>-0.2491882650770395</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.2399858171862999</v>
+        <v>-0.2166695999370027</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.575998765081621</v>
+        <v>1.687297862227843</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.4229149514615764</v>
+        <v>0.4124922443304418</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.9966960626180073</v>
+        <v>1.0090471363136</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.8158689158902468</v>
+        <v>0.6983923666541292</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6348457731703322</v>
+        <v>0.5954295819876048</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3683042029273144</v>
+        <v>0.4195737817108612</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7668032591586683</v>
+        <v>0.7431902246938087</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3740117029570889</v>
+        <v>0.4115045818431199</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.3277090682949717</v>
+        <v>0.3425808579663772</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>0.1786337499707025</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>2.228283472806624</v>
+        <v>2.228283472806625</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.7490779903215068</v>
+        <v>-0.6353131994724075</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.7630162970793489</v>
+        <v>-0.6213081153771858</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3631864424395845</v>
+        <v>0.3158222627919491</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.312812855427934</v>
+        <v>-1.015246074348159</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.845941629955494</v>
+        <v>-2.858981455029193</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.02362326860859353</v>
+        <v>0.09650934528964658</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.3217237779652276</v>
+        <v>-0.5018699172553163</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.286907552322338</v>
+        <v>-1.241476336671505</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.9146707039727189</v>
+        <v>0.8623862284064107</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.419835244957588</v>
+        <v>2.54008875334085</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.005102674615673</v>
+        <v>2.18078687848732</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.696503316942146</v>
+        <v>3.511795870505327</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.801598198365975</v>
+        <v>3.880163254474009</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.871281709584373</v>
+        <v>2.039268371197243</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>4.92828409587881</v>
+        <v>4.832355763575736</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.579120286497861</v>
+        <v>2.494277087642966</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.64365269522766</v>
+        <v>1.581363002168352</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>3.663379396215801</v>
+        <v>3.76585095541762</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>0.0496832952013493</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.6197511141645768</v>
+        <v>0.619751114164577</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.4124639058383737</v>
+        <v>-0.3671381690584489</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.4057322540862472</v>
+        <v>-0.3732014979320711</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.0592987269533737</v>
+        <v>0.04847566502045274</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1936985488702102</v>
+        <v>-0.1550354586578808</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3977261630201624</v>
+        <v>-0.3925132313571259</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.006398893174425141</v>
+        <v>0.009603335998151101</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.07449540947304555</v>
+        <v>-0.1211264407238763</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2972764727494919</v>
+        <v>-0.2807743841800811</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.1997294104574819</v>
+        <v>0.1972053703408541</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.792645080479595</v>
+        <v>3.098332076295007</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>2.248547454425931</v>
+        <v>2.615320898568694</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>4.086736664320253</v>
+        <v>4.100081675109442</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.8047841389735813</v>
+        <v>0.8939863595217511</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4253293296529739</v>
+        <v>0.4687729274392552</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.084515091648253</v>
+        <v>1.079331984233391</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.911235918910457</v>
+        <v>0.8569224112961223</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.6106434087817042</v>
+        <v>0.5574839558198711</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.256329543079967</v>
+        <v>1.306344007144616</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>0.6987907463753835</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>1.8608711385832</v>
+        <v>1.860871138583201</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.6491017825160769</v>
+        <v>0.7852499418912263</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.1421972797548084</v>
+        <v>-0.1165780116115933</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3966278572242654</v>
+        <v>0.2079519827182238</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.7497347650192655</v>
+        <v>-1.039529100840252</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.372390903411019</v>
+        <v>-2.246545647300085</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.1593779967445229</v>
+        <v>-0.4031840090562742</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.3585658327130004</v>
+        <v>0.3390741473516805</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.7230102205199007</v>
+        <v>-0.576112169015138</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.5000134390193274</v>
+        <v>0.4017000518623441</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.194334683347638</v>
+        <v>4.014194070303107</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.721426177135791</v>
+        <v>2.655300866451796</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.32040472249727</v>
+        <v>2.998732962819562</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.005058254866104</v>
+        <v>3.81925122987187</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.788092697827274</v>
+        <v>2.613003763150325</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.954792300528309</v>
+        <v>4.095207223250664</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.33613292957014</v>
+        <v>3.313416131082272</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.087303541394843</v>
+        <v>2.201439444360364</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>3.132135415860989</v>
+        <v>3.12823050966188</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>0.1523955482187125</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.4058274652315237</v>
+        <v>0.405827465231524</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.2316050997214468</v>
+        <v>0.304283309774781</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.08525680537446674</v>
+        <v>-0.08894132076289435</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.1139424640622551</v>
+        <v>0.05427988605600573</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.09250972415106669</v>
+        <v>-0.120839878907172</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2806502255944182</v>
+        <v>-0.2730787136644696</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.02673693181057963</v>
+        <v>-0.05162954856533917</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.06363473369553606</v>
+        <v>0.06736359122783535</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1408485178475072</v>
+        <v>-0.1097089656852885</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.09355673674502844</v>
+        <v>0.07318606466118178</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>3.288368548728327</v>
+        <v>3.123932733067614</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>2.29418927710419</v>
+        <v>2.179585616097617</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.740743496546425</v>
+        <v>2.348346979511439</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.6977394722328389</v>
+        <v>0.6791301879381026</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4468164115477664</v>
+        <v>0.42740750569817</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6697761092539815</v>
+        <v>0.6975745173349502</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8565503553170142</v>
+        <v>0.8367901980769766</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.5359184994027704</v>
+        <v>0.5539555939812345</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.7906926682673181</v>
+        <v>0.8311771460565832</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>0.04607801068359958</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1.307767661080836</v>
+        <v>1.307767661080835</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>1.905993916795759</v>
@@ -1511,7 +1511,7 @@
         <v>0.6442290255734076</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>1.213107890151241</v>
+        <v>1.21310789015124</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>1.474773402380305</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.2035602575299755</v>
+        <v>0.1383274779827539</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.7056354531444659</v>
+        <v>-0.6174259500508142</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.5987799025783548</v>
+        <v>0.4507910437160753</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.6161404649119254</v>
+        <v>0.5609345438606185</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.6426367742251001</v>
+        <v>-0.7475619127923337</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.1857013520832006</v>
+        <v>0.08171642003130522</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.6937247832707653</v>
+        <v>0.7515541040298318</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.3796860820636585</v>
+        <v>-0.3965799108116955</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.6136379346864564</v>
+        <v>0.6030843184663788</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.930716816794202</v>
+        <v>1.770299648268197</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.7571642858477347</v>
+        <v>0.79815836291743</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.062686412941174</v>
+        <v>2.091569980983122</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.200062908630345</v>
+        <v>3.12868928035567</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.824474891429386</v>
+        <v>1.897254537953679</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>2.475972252599218</v>
+        <v>2.311335982670977</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.260778638646427</v>
+        <v>2.222333827997308</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.075449437203954</v>
+        <v>1.00457153558608</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>2.044412329002517</v>
+        <v>2.042182330334971</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.0215306755560667</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.6110750181207271</v>
+        <v>0.6110750181207267</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.2952015017666275</v>
@@ -1616,7 +1616,7 @@
         <v>0.09977858489214679</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1878868908352164</v>
+        <v>0.1878868908352162</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.3404393841468972</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.05014743108598542</v>
+        <v>0.04846716210384223</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2799537957745142</v>
+        <v>-0.2512135127072032</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.2265715955059281</v>
+        <v>0.1760163942673928</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.08502420622075907</v>
+        <v>0.08060944084835449</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.09499181745057438</v>
+        <v>-0.1060070466626045</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02329111543031127</v>
+        <v>0.01723144109687367</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1469201737958036</v>
+        <v>0.1609613065360307</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.07779946184656084</v>
+        <v>-0.08445593662891195</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.1298759042259769</v>
+        <v>0.1288075252711131</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.026913399082615</v>
+        <v>0.9820192630805199</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.425590776617746</v>
+        <v>0.4758619596108429</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.123416516165796</v>
+        <v>1.157340634106392</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.5353840781741512</v>
+        <v>0.5290865438387584</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.3162191658632124</v>
+        <v>0.3175971727796123</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.4243657631117789</v>
+        <v>0.3998687122142688</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.5693264152332462</v>
+        <v>0.5551263589790422</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.2733051617854473</v>
+        <v>0.2452936001450151</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.5133270249866453</v>
+        <v>0.528416547484071</v>
       </c>
     </row>
     <row r="34">
